--- a/tables/MCD_Ring_Table.xlsx
+++ b/tables/MCD_Ring_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20377"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael\R_projects\ithomiini_convergence\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCB91C8-CD12-4117-BA9F-E43095DB6358}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49C5324-8E5D-4460-B2DF-CD1B24A97462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,15 +196,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>BANJANAM</t>
-  </si>
-  <si>
-    <t>THABENAF</t>
-  </si>
-  <si>
-    <t>TICIDAM</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
@@ -680,6 +671,15 @@
   </si>
   <si>
     <t>Mean null MCD</t>
+  </si>
+  <si>
+    <t>BANJANA-M</t>
+  </si>
+  <si>
+    <t>THABENA-F</t>
+  </si>
+  <si>
+    <t>TICIDA-M</t>
   </si>
 </sst>
 </file>
@@ -1083,8 +1083,8 @@
   </sheetPr>
   <dimension ref="B2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,10 +1112,10 @@
         <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>45</v>
@@ -1170,19 +1170,19 @@
         <v>2701</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
@@ -1199,19 +1199,19 @@
         <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="J5" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
@@ -1228,24 +1228,24 @@
         <v>66</v>
       </c>
       <c r="F6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -1257,19 +1257,19 @@
         <v>903</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -1286,19 +1286,19 @@
         <v>171</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
@@ -1344,19 +1344,19 @@
         <v>595</v>
       </c>
       <c r="F10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="J10" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -1373,19 +1373,19 @@
         <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="J11" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>90</v>
       </c>
       <c r="L11" s="6"/>
     </row>
@@ -1403,19 +1403,19 @@
         <v>3</v>
       </c>
       <c r="F12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
@@ -1432,19 +1432,19 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="J13" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
@@ -1461,19 +1461,19 @@
         <v>45</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>103</v>
-      </c>
       <c r="J14" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
@@ -1490,19 +1490,19 @@
         <v>528</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -1519,19 +1519,19 @@
         <v>136</v>
       </c>
       <c r="F16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="J16" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1548,19 +1548,19 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="J17" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1577,19 +1577,19 @@
         <v>1081</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="J18" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
@@ -1606,19 +1606,19 @@
         <v>351</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="J19" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -1664,19 +1664,19 @@
         <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="J21" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1693,19 +1693,19 @@
         <v>1953</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1722,19 +1722,19 @@
         <v>190</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="J23" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1751,19 +1751,19 @@
         <v>6</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>137</v>
-      </c>
       <c r="J24" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
@@ -1780,19 +1780,19 @@
         <v>105</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="J25" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1809,19 +1809,19 @@
         <v>1540</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
@@ -1838,19 +1838,19 @@
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="J27" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -1867,19 +1867,19 @@
         <v>91</v>
       </c>
       <c r="F28" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="J28" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -1896,19 +1896,19 @@
         <v>66</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="J29" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
@@ -1925,19 +1925,19 @@
         <v>78</v>
       </c>
       <c r="F30" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I30" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="J30" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -1954,19 +1954,19 @@
         <v>105</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="J31" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1983,19 +1983,19 @@
         <v>120</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
@@ -2012,19 +2012,19 @@
         <v>703</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="J33" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
@@ -2041,19 +2041,19 @@
         <v>21</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
@@ -2070,19 +2070,19 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="J35" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
@@ -2099,19 +2099,19 @@
         <v>36</v>
       </c>
       <c r="F36" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>182</v>
-      </c>
       <c r="J36" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
@@ -2157,19 +2157,19 @@
         <v>36</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>186</v>
-      </c>
       <c r="J38" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
@@ -2186,19 +2186,19 @@
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="J39" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
@@ -2215,19 +2215,19 @@
         <v>28</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
@@ -2244,24 +2244,24 @@
         <v>153</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="J41" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>48</v>
@@ -2273,19 +2273,19 @@
         <v>45</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="J42" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J42" s="10" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
@@ -2302,24 +2302,24 @@
         <v>28</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="J43" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>48</v>
@@ -2331,19 +2331,19 @@
         <v>28</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="J44" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
@@ -2360,19 +2360,19 @@
         <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="J45" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
